--- a/test_data/report_user.xlsx
+++ b/test_data/report_user.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -27,8 +27,16 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <color theme="1"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -42,14 +50,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -58,42 +67,27 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -107,9 +101,34 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,18 +141,17 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,32 +165,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -192,187 +185,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,11 +394,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,16 +439,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,21 +464,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,188 +485,182 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1094,270 +1083,270 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col width="25.3333333333333" customWidth="1" style="5" min="1" max="1"/>
-    <col width="10.2222222222222" customWidth="1" style="5" min="2" max="2"/>
-    <col width="12.7777777777778" customWidth="1" style="2" min="3" max="3"/>
-    <col width="16.4444444444444" customWidth="1" style="2" min="4" max="4"/>
+    <col width="25.3333333333333" customWidth="1" style="4" min="1" max="1"/>
+    <col width="10.2222222222222" customWidth="1" style="4" min="2" max="2"/>
+    <col width="12.7777777777778" customWidth="1" style="1" min="3" max="3"/>
+    <col width="16.4444444444444" customWidth="1" style="1" min="4" max="4"/>
     <col width="8.888888888888889" customWidth="1" style="1" min="5" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1" s="8">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1" ht="19" customHeight="1" s="1">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>account</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>role_code</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>role_cookie</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" s="8">
-      <c r="A2" s="6" t="n">
+    <row r="2" ht="18" customHeight="1" s="1">
+      <c r="A2" s="5" t="n">
         <v>13100000005</v>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>zc</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>驻场</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>zc_cookie</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="5" t="n">
         <v>13100000003</v>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>zcjl</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>驻场经理</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>zcjl_cookie</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="5" t="n">
         <v>13100000009</v>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>cw</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>财务</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>cw_cookie</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="5" t="n">
         <v>13100000008</v>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>jszy</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>结算专员</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>jszy_cookie</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="5" t="n">
         <v>13100000006</v>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>tz</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>拓展</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>tz_cookie</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="5" t="n">
         <v>13100000007</v>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>jszz</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>结算组长</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>jszz_cookie</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="5" t="n">
         <v>13100000001</v>
       </c>
-      <c r="B8" s="7" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>qyz</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>区域总</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>qyz_cookie</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="5" t="n">
         <v>13100000002</v>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>zjb</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>总经办</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>zjb_cookie</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="5" t="n">
         <v>13600000006</v>
       </c>
-      <c r="B10" s="7" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>xftz</t>
         </is>
       </c>
-      <c r="C10" s="7" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>销方拓展</t>
         </is>
       </c>
-      <c r="D10" s="7" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>xftz_cookie</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n">
+      <c r="A11" s="5" t="n">
         <v>13600000004</v>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>xfjszy</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>销方结算专员</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>xfjszy_cookie</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="5" t="n">
         <v>13600000003</v>
       </c>
-      <c r="B12" s="7" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>xfjszz</t>
         </is>
       </c>
-      <c r="C12" s="7" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>销方结算组长</t>
         </is>
       </c>
-      <c r="D12" s="7" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t>xfjszz_cookie</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n">
+      <c r="A13" s="5" t="n">
         <v>13600000005</v>
       </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>xfcw</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>销方财务</t>
         </is>
       </c>
-      <c r="D13" s="7" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t>xfcw_cookie</t>
         </is>
@@ -1377,137 +1366,170 @@
   <dimension ref="B1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col width="8.888888888888889" customWidth="1" style="1" min="1" max="1"/>
-    <col width="17.4444444444444" customWidth="1" style="2" min="2" max="2"/>
-    <col width="19.3333333333333" customWidth="1" style="2" min="3" max="3"/>
-    <col width="8.888888888888889" customWidth="1" style="1" min="4" max="16384"/>
+    <col width="17.4444444444444" customWidth="1" style="1" min="2" max="2"/>
+    <col width="19.3333333333333" customWidth="1" style="1" min="3" max="3"/>
+    <col width="17.1111111111111" customWidth="1" style="1" min="4" max="4"/>
+    <col width="8.888888888888889" customWidth="1" style="1" min="5" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>房号</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>龙光317栋</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>1017</v>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>龙光323栋</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>1029</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>客户姓名</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>龙光317栋业主</t>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>龙光323栋业主</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>平台id</t>
         </is>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="0" t="n">
         <v>999</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>楼盘id</t>
         </is>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>报备时间</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>2022-03-14 12:41</t>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-23 12:41</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>到访时间</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>2022-03-14 12:42</t>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-23 12:42</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>认购日期</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>2022-03-14</t>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>成交平台id</t>
         </is>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="0" t="n">
         <v>5109</v>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>成交平台为销方</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>成交门店id</t>
         </is>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="0" t="n">
         <v>4807</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>经纪人手机号</t>
         </is>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="0" t="n">
         <v>13729112152</v>
       </c>
     </row>
+    <row r="11">
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>成交方式</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>全款1；分期付款2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>认购单号</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>RG2022032333221032</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>退房输入认购单号</t>
+        </is>
+      </c>
+    </row>
     <row r="17">
-      <c r="J17" s="4" t="n"/>
+      <c r="J17" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test_data/report_user.xlsx
+++ b/test_data/report_user.xlsx
@@ -28,8 +28,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -37,28 +36,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -72,6 +49,14 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF3F3F76"/>
       <sz val="11"/>
@@ -80,14 +65,77 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -101,34 +149,9 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,30 +165,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -185,67 +185,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,109 +335,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,6 +390,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -423,17 +432,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,17 +453,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,11 +477,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,10 +499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -511,130 +511,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyAlignment="1">
@@ -1363,10 +1363,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:J17"/>
+  <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
@@ -1375,7 +1375,9 @@
     <col width="17.4444444444444" customWidth="1" style="1" min="2" max="2"/>
     <col width="19.3333333333333" customWidth="1" style="1" min="3" max="3"/>
     <col width="17.1111111111111" customWidth="1" style="1" min="4" max="4"/>
-    <col width="8.888888888888889" customWidth="1" style="1" min="5" max="16384"/>
+    <col width="15.6666666666667" customWidth="1" style="1" min="5" max="5"/>
+    <col width="16.1111111111111" customWidth="1" style="1" min="6" max="6"/>
+    <col width="8.888888888888889" customWidth="1" style="1" min="7" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1386,12 +1388,28 @@
       </c>
       <c r="C1" s="0" t="inlineStr">
         <is>
-          <t>龙光323栋</t>
+          <t>华发331栋</t>
         </is>
       </c>
       <c r="D1" s="0" t="n">
-        <v>1029</v>
-      </c>
+        <v>3019</v>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>巨源331栋</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="n"/>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>永成专用</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>1002</v>
+      </c>
+      <c r="J1" s="0" t="n"/>
+      <c r="K1" s="0" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="0" t="inlineStr">
@@ -1401,9 +1419,16 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>龙光323栋业主</t>
-        </is>
-      </c>
+          <t>华发331栋业主</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="n"/>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>永成专用业主</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n"/>
     </row>
     <row r="3">
       <c r="B3" s="0" t="inlineStr">
@@ -1424,6 +1449,9 @@
       <c r="C4" s="0" t="n">
         <v>31</v>
       </c>
+      <c r="E4" s="0" t="n">
+        <v>60563</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="0" t="inlineStr">
@@ -1433,7 +1461,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2022-03-23 12:41</t>
+          <t>2022-03-31 12:41</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1473,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2022-03-23 12:42</t>
+          <t>2022-03-31 12:42</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1485,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-03-31</t>
         </is>
       </c>
     </row>
@@ -1485,6 +1513,10 @@
       <c r="C9" s="0" t="n">
         <v>4807</v>
       </c>
+      <c r="E9" s="0" t="n"/>
+      <c r="F9" s="0" t="n">
+        <v>4964</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="0" t="inlineStr">
@@ -1495,6 +1527,10 @@
       <c r="C10" s="0" t="n">
         <v>13729112152</v>
       </c>
+      <c r="E10" s="0" t="n"/>
+      <c r="F10" s="0" t="n">
+        <v>18473805808</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="0" t="inlineStr">
@@ -1503,7 +1539,7 @@
         </is>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>

--- a/test_data/report_user.xlsx
+++ b/test_data/report_user.xlsx
@@ -28,6 +28,28 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -35,7 +57,68 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -52,22 +135,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -76,6 +144,13 @@
       <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -89,86 +164,11 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -185,6 +185,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -197,6 +227,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -209,7 +293,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,151 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,8 +397,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -420,59 +450,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,6 +471,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -499,10 +499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -511,133 +511,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1366,7 +1366,7 @@
   <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="C1" s="0" t="inlineStr">
         <is>
-          <t>华发331栋</t>
+          <t>巨源401栋</t>
         </is>
       </c>
       <c r="D1" s="0" t="n">
-        <v>3019</v>
+        <v>4014</v>
       </c>
       <c r="F1" s="0" t="inlineStr">
         <is>
@@ -1402,11 +1402,11 @@
       <c r="G1" s="0" t="n"/>
       <c r="H1" s="0" t="inlineStr">
         <is>
-          <t>永成专用</t>
+          <t>华发401栋</t>
         </is>
       </c>
       <c r="I1" s="0" t="n">
-        <v>1002</v>
+        <v>5007</v>
       </c>
       <c r="J1" s="0" t="n"/>
       <c r="K1" s="0" t="n"/>
@@ -1419,15 +1419,16 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>华发331栋业主</t>
+          <t>巨源401栋业主</t>
         </is>
       </c>
       <c r="D2" s="0" t="n"/>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>永成专用业主</t>
-        </is>
-      </c>
+          <t>华发401栋业主</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="n"/>
       <c r="J2" s="0" t="n"/>
     </row>
     <row r="3">
@@ -1447,7 +1448,7 @@
         </is>
       </c>
       <c r="C4" s="0" t="n">
-        <v>31</v>
+        <v>60563</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>60563</v>
@@ -1461,7 +1462,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2022-03-31 12:41</t>
+          <t>2022-04-01 07:41</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1474,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2022-03-31 12:42</t>
+          <t>2022-04-01 07:42</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1486,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-01</t>
         </is>
       </c>
     </row>

--- a/test_data/report_user.xlsx
+++ b/test_data/report_user.xlsx
@@ -34,6 +34,35 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -43,21 +72,37 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -80,46 +125,17 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,24 +148,8 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -164,8 +164,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -191,55 +191,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,121 +353,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,11 +394,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,17 +448,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,8 +460,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,26 +491,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -499,10 +499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -511,10 +511,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -523,121 +523,121 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1366,7 +1366,7 @@
   <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
@@ -1388,25 +1388,27 @@
       </c>
       <c r="C1" s="0" t="inlineStr">
         <is>
-          <t>巨源401栋</t>
+          <t>巨源406栋</t>
         </is>
       </c>
       <c r="D1" s="0" t="n">
-        <v>4014</v>
+        <v>4346</v>
       </c>
       <c r="F1" s="0" t="inlineStr">
         <is>
-          <t>巨源331栋</t>
-        </is>
-      </c>
-      <c r="G1" s="0" t="n"/>
+          <t>巨源406栋</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>4334</v>
+      </c>
       <c r="H1" s="0" t="inlineStr">
         <is>
-          <t>华发401栋</t>
+          <t>华发406栋</t>
         </is>
       </c>
       <c r="I1" s="0" t="n">
-        <v>5007</v>
+        <v>1503</v>
       </c>
       <c r="J1" s="0" t="n"/>
       <c r="K1" s="0" t="n"/>
@@ -1419,13 +1421,19 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>巨源401栋业主</t>
+          <t>巨源406栋业主</t>
         </is>
       </c>
       <c r="D2" s="0" t="n"/>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>巨源406栋业主</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="n"/>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>华发401栋业主</t>
+          <t>华发406栋业主</t>
         </is>
       </c>
       <c r="I2" s="0" t="n"/>
@@ -1462,7 +1470,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2022-04-01 07:41</t>
+          <t>2022-04-06 07:41</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1482,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2022-04-01 07:42</t>
+          <t>2022-04-06 07:42</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1494,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-06</t>
         </is>
       </c>
     </row>
@@ -1502,6 +1510,16 @@
       <c r="D8" s="0" t="inlineStr">
         <is>
           <t>成交平台为销方</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>5004 release环境</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>5109 pre环境</t>
         </is>
       </c>
     </row>
